--- a/turnos-big.xlsx
+++ b/turnos-big.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b68001cfe7d3a722/Ambiente de Trabalho/jeec/schedule_otimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{3A3B2711-7DA7-4732-8AD1-450DEB4CD1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FA7D0E9-BA48-4F12-A502-03D5AB162F5F}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{3A3B2711-7DA7-4732-8AD1-450DEB4CD1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D0B0CAF-89F4-4892-B65C-530475931DA8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Workshops</t>
   </si>
   <si>
-    <t>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>["Marketing", "Volunteer"]</t>
+  </si>
+  <si>
+    <t>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,13 +475,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -489,13 +489,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -503,13 +503,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -517,13 +517,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -531,13 +531,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/turnos-big.xlsx
+++ b/turnos-big.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b68001cfe7d3a722/Ambiente de Trabalho/jeec/schedule_otimization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruipe\OneDrive\Ambiente de Trabalho\jeec\schedule_otimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{3A3B2711-7DA7-4732-8AD1-450DEB4CD1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D0B0CAF-89F4-4892-B65C-530475931DA8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51869039-E702-4671-BD02-74778DF24566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0784EA88-8875-478A-91C5-C3F582E7D373}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>turnos</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Auditorio</t>
   </si>
   <si>
-    <t>Almocos</t>
-  </si>
-  <si>
     <t>Divulgacao</t>
   </si>
   <si>
@@ -80,7 +77,22 @@
     <t>["Marketing", "Volunteer"]</t>
   </si>
   <si>
-    <t>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</t>
+    <t>MontagemDesmontagem</t>
+  </si>
+  <si>
+    <t>CoffeeBreak</t>
+  </si>
+  <si>
+    <t>Refeicoes</t>
+  </si>
+  <si>
+    <t>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1,1,1,1,1,1,1,1,1,1,1,1,1]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1,0,0,0,0,0,1,1,0,0,0,0,0,1,1,0,0,0,0,0,1,1,0,0,0,0,0,1,1,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
   </si>
 </sst>
 </file>
@@ -139,10 +151,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A695A15F-BAE7-4DD9-B461-9052F13FDB4C}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.77734375" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -475,13 +483,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -489,55 +497,83 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
